--- a/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Pdgfc-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pdgfrb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H2">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I2">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J2">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.9759103192808</v>
+        <v>23.463916</v>
       </c>
       <c r="N2">
-        <v>16.9759103192808</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P2">
-        <v>0.1304071842815303</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q2">
-        <v>52.57999200710591</v>
+        <v>4.384858409026667</v>
       </c>
       <c r="R2">
-        <v>52.57999200710591</v>
+        <v>39.46372568124</v>
       </c>
       <c r="S2">
-        <v>0.02944921430089268</v>
+        <v>0.001697722620678771</v>
       </c>
       <c r="T2">
-        <v>0.02944921430089268</v>
+        <v>0.001697722620678771</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H3">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I3">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J3">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>87.7771907232728</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N3">
-        <v>87.7771907232728</v>
+        <v>263.722283</v>
       </c>
       <c r="O3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P3">
-        <v>0.6742952849700149</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q3">
-        <v>271.8749038980212</v>
+        <v>16.42784705758778</v>
       </c>
       <c r="R3">
-        <v>271.8749038980212</v>
+        <v>147.85062351829</v>
       </c>
       <c r="S3">
-        <v>0.1522727943139549</v>
+        <v>0.006360508129818689</v>
       </c>
       <c r="T3">
-        <v>0.1522727943139549</v>
+        <v>0.006360508129818688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>3.09732974657547</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H4">
-        <v>3.09732974657547</v>
+        <v>0.56063</v>
       </c>
       <c r="I4">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J4">
-        <v>0.2258250913332818</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>25.4230883507567</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N4">
-        <v>25.4230883507567</v>
+        <v>0.191853</v>
       </c>
       <c r="O4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P4">
-        <v>0.1952975307484549</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q4">
-        <v>78.74368779861504</v>
+        <v>0.01195094971</v>
       </c>
       <c r="R4">
-        <v>78.74368779861504</v>
+        <v>0.10755854739</v>
       </c>
       <c r="S4">
-        <v>0.04410308271843422</v>
+        <v>4.627150016861126E-06</v>
       </c>
       <c r="T4">
-        <v>0.04410308271843422</v>
+        <v>4.627150016861126E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.013792571646061</v>
+        <v>0.1868766666666667</v>
       </c>
       <c r="H5">
-        <v>8.013792571646061</v>
+        <v>0.56063</v>
       </c>
       <c r="I5">
-        <v>0.5842824585980357</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="J5">
-        <v>0.5842824585980357</v>
+        <v>0.01256665704529768</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.9759103192808</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N5">
-        <v>16.9759103192808</v>
+        <v>186.73857</v>
       </c>
       <c r="O5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P5">
-        <v>0.1304071842815303</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q5">
-        <v>136.0414240135822</v>
+        <v>11.6323604999</v>
       </c>
       <c r="R5">
-        <v>136.0414240135822</v>
+        <v>104.6912444991</v>
       </c>
       <c r="S5">
-        <v>0.07619463025085961</v>
+        <v>0.004503799144783364</v>
       </c>
       <c r="T5">
-        <v>0.07619463025085961</v>
+        <v>0.004503799144783363</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H6">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I6">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J6">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.7771907232728</v>
+        <v>23.463916</v>
       </c>
       <c r="N6">
-        <v>87.7771907232728</v>
+        <v>70.39174800000001</v>
       </c>
       <c r="O6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="P6">
-        <v>0.6742952849700149</v>
+        <v>0.1350973942042957</v>
       </c>
       <c r="Q6">
-        <v>703.4281989781231</v>
+        <v>74.15240367298399</v>
       </c>
       <c r="R6">
-        <v>703.4281989781231</v>
+        <v>667.371633056856</v>
       </c>
       <c r="S6">
-        <v>0.3939789069233434</v>
+        <v>0.02871021167620168</v>
       </c>
       <c r="T6">
-        <v>0.3939789069233434</v>
+        <v>0.02871021167620167</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +832,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.013792571646061</v>
+        <v>3.160274</v>
       </c>
       <c r="H7">
-        <v>8.013792571646061</v>
+        <v>9.480822</v>
       </c>
       <c r="I7">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J7">
-        <v>0.5842824585980357</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.4230883507567</v>
+        <v>87.90742766666666</v>
       </c>
       <c r="N7">
-        <v>25.4230883507567</v>
+        <v>263.722283</v>
       </c>
       <c r="O7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="P7">
-        <v>0.1952975307484549</v>
+        <v>0.5061416180048238</v>
       </c>
       <c r="Q7">
-        <v>203.7353565735955</v>
+        <v>277.8115580618473</v>
       </c>
       <c r="R7">
-        <v>203.7353565735955</v>
+        <v>2500.304022556626</v>
       </c>
       <c r="S7">
-        <v>0.1141089214238327</v>
+        <v>0.1075626445398282</v>
       </c>
       <c r="T7">
-        <v>0.1141089214238327</v>
+        <v>0.1075626445398282</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.60449151498315</v>
+        <v>3.160274</v>
       </c>
       <c r="H8">
-        <v>2.60449151498315</v>
+        <v>9.480822</v>
       </c>
       <c r="I8">
-        <v>0.1898924500686824</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J8">
-        <v>0.1898924500686824</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>16.9759103192808</v>
+        <v>0.06395099999999999</v>
       </c>
       <c r="N8">
-        <v>16.9759103192808</v>
+        <v>0.191853</v>
       </c>
       <c r="O8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634768</v>
       </c>
       <c r="P8">
-        <v>0.1304071842815303</v>
+        <v>0.0003682085060634769</v>
       </c>
       <c r="Q8">
-        <v>44.21361438568174</v>
+        <v>0.202102682574</v>
       </c>
       <c r="R8">
-        <v>44.21361438568174</v>
+        <v>1.818924143166</v>
       </c>
       <c r="S8">
-        <v>0.02476333972977795</v>
+        <v>7.824980054074406E-05</v>
       </c>
       <c r="T8">
-        <v>0.02476333972977795</v>
+        <v>7.824980054074406E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.60449151498315</v>
+        <v>3.160274</v>
       </c>
       <c r="H9">
-        <v>2.60449151498315</v>
+        <v>9.480822</v>
       </c>
       <c r="I9">
-        <v>0.1898924500686824</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="J9">
-        <v>0.1898924500686824</v>
+        <v>0.212514918184031</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>87.7771907232728</v>
+        <v>62.24619000000001</v>
       </c>
       <c r="N9">
-        <v>87.7771907232728</v>
+        <v>186.73857</v>
       </c>
       <c r="O9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="P9">
-        <v>0.6742952849700149</v>
+        <v>0.3583927792848171</v>
       </c>
       <c r="Q9">
-        <v>228.6149484478216</v>
+        <v>196.71501585606</v>
       </c>
       <c r="R9">
-        <v>228.6149484478216</v>
+        <v>1770.43514270454</v>
       </c>
       <c r="S9">
-        <v>0.1280435837327165</v>
+        <v>0.07616381216746038</v>
       </c>
       <c r="T9">
-        <v>0.1280435837327165</v>
+        <v>0.07616381216746036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.401240333333334</v>
+      </c>
+      <c r="H10">
+        <v>25.203721</v>
+      </c>
+      <c r="I10">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="J10">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.463916</v>
+      </c>
+      <c r="N10">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P10">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q10">
+        <v>197.1259974771453</v>
+      </c>
+      <c r="R10">
+        <v>1774.133977294308</v>
+      </c>
+      <c r="S10">
+        <v>0.07632293538871729</v>
+      </c>
+      <c r="T10">
+        <v>0.07632293538871729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.401240333333334</v>
+      </c>
+      <c r="H11">
+        <v>25.203721</v>
+      </c>
+      <c r="I11">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="J11">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N11">
+        <v>263.722283</v>
+      </c>
+      <c r="O11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P11">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q11">
+        <v>738.5314269127825</v>
+      </c>
+      <c r="R11">
+        <v>6646.782842215043</v>
+      </c>
+      <c r="S11">
+        <v>0.2859434427736333</v>
+      </c>
+      <c r="T11">
+        <v>0.2859434427736333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.401240333333334</v>
+      </c>
+      <c r="H12">
+        <v>25.203721</v>
+      </c>
+      <c r="I12">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="J12">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.191853</v>
+      </c>
+      <c r="O12">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P12">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q12">
+        <v>0.537267720557</v>
+      </c>
+      <c r="R12">
+        <v>4.835409485013</v>
+      </c>
+      <c r="S12">
+        <v>0.0002080184757328597</v>
+      </c>
+      <c r="T12">
+        <v>0.0002080184757328597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.401240333333334</v>
+      </c>
+      <c r="H13">
+        <v>25.203721</v>
+      </c>
+      <c r="I13">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="J13">
+        <v>0.5649475020465676</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N13">
+        <v>186.73857</v>
+      </c>
+      <c r="O13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P13">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q13">
+        <v>522.9452020243301</v>
+      </c>
+      <c r="R13">
+        <v>4706.506818218971</v>
+      </c>
+      <c r="S13">
+        <v>0.2024731054084842</v>
+      </c>
+      <c r="T13">
+        <v>0.2024731054084842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H14">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J14">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.463916</v>
+      </c>
+      <c r="N14">
+        <v>70.39174800000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="P14">
+        <v>0.1350973942042957</v>
+      </c>
+      <c r="Q14">
+        <v>73.26473244548266</v>
+      </c>
+      <c r="R14">
+        <v>659.3825920093441</v>
+      </c>
+      <c r="S14">
+        <v>0.02836652451869795</v>
+      </c>
+      <c r="T14">
+        <v>0.02836652451869795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H15">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J15">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>87.90742766666666</v>
+      </c>
+      <c r="N15">
+        <v>263.722283</v>
+      </c>
+      <c r="O15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="P15">
+        <v>0.5061416180048238</v>
+      </c>
+      <c r="Q15">
+        <v>274.4859028633138</v>
+      </c>
+      <c r="R15">
+        <v>2470.373125769824</v>
+      </c>
+      <c r="S15">
+        <v>0.1062750225615437</v>
+      </c>
+      <c r="T15">
+        <v>0.1062750225615437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.60449151498315</v>
-      </c>
-      <c r="H10">
-        <v>2.60449151498315</v>
-      </c>
-      <c r="I10">
-        <v>0.1898924500686824</v>
-      </c>
-      <c r="J10">
-        <v>0.1898924500686824</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="N10">
-        <v>25.4230883507567</v>
-      </c>
-      <c r="O10">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="P10">
-        <v>0.1952975307484549</v>
-      </c>
-      <c r="Q10">
-        <v>66.21421789421278</v>
-      </c>
-      <c r="R10">
-        <v>66.21421789421278</v>
-      </c>
-      <c r="S10">
-        <v>0.03708552660618793</v>
-      </c>
-      <c r="T10">
-        <v>0.03708552660618793</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H16">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J16">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.06395099999999999</v>
+      </c>
+      <c r="N16">
+        <v>0.191853</v>
+      </c>
+      <c r="O16">
+        <v>0.0003682085060634768</v>
+      </c>
+      <c r="P16">
+        <v>0.0003682085060634769</v>
+      </c>
+      <c r="Q16">
+        <v>0.199683330976</v>
+      </c>
+      <c r="R16">
+        <v>1.797149978784</v>
+      </c>
+      <c r="S16">
+        <v>7.731307977301198E-05</v>
+      </c>
+      <c r="T16">
+        <v>7.731307977301199E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.122442666666667</v>
+      </c>
+      <c r="H17">
+        <v>9.367328000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="J17">
+        <v>0.2099709227241037</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>62.24619000000001</v>
+      </c>
+      <c r="N17">
+        <v>186.73857</v>
+      </c>
+      <c r="O17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="P17">
+        <v>0.3583927792848171</v>
+      </c>
+      <c r="Q17">
+        <v>194.36015949344</v>
+      </c>
+      <c r="R17">
+        <v>1749.24143544096</v>
+      </c>
+      <c r="S17">
+        <v>0.07525206256408909</v>
+      </c>
+      <c r="T17">
+        <v>0.07525206256408909</v>
       </c>
     </row>
   </sheetData>
